--- a/kinit-api/scripts/initialize/data/init.xlsx
+++ b/kinit-api/scripts/initialize/data/init.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ktianc\programming\project\kinit-pro\kinit-api\scripts\initialize\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\ktianc\project\kinit\kinit-api\scripts\initialize\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F03963-B92D-4400-A571-635978E5B7B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97553F9-27BE-416E-92B2-16BBF0FD5499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="887" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2580" yWindow="6480" windowWidth="32880" windowHeight="17460" tabRatio="887" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vadmin_auth_menu" sheetId="1" r:id="rId1"/>
@@ -23,15 +23,13 @@
     <sheet name="vadmin_system_settings" sheetId="7" r:id="rId8"/>
     <sheet name="vadmin_help_issue_category" sheetId="10" r:id="rId9"/>
     <sheet name="vadmin_help_issue" sheetId="11" r:id="rId10"/>
-    <sheet name="vadmin_auth_dept" sheetId="12" r:id="rId11"/>
-    <sheet name="vadmin_auth_user_depts" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="326">
   <si>
     <t>title</t>
   </si>
@@ -1036,82 +1034,11 @@
     <t>views/Vadmin/Resource/Image/Image</t>
   </si>
   <si>
-    <t>dept_key</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>kinit 开发团队</t>
-  </si>
-  <si>
-    <t>total_group</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>dept_id</t>
-  </si>
-  <si>
     <t>tdesign:catalog</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>/record</t>
-  </si>
-  <si>
-    <t>部门管理</t>
-  </si>
-  <si>
-    <t>views/Vadmin/Auth/Dept/Dept</t>
-  </si>
-  <si>
-    <t>dept</t>
-  </si>
-  <si>
-    <t>data_range</t>
-  </si>
-  <si>
-    <t>wx_server_openid</t>
-  </si>
-  <si>
-    <t>is_wx_server_openid</t>
-  </si>
-  <si>
-    <t>数据权限范围</t>
-  </si>
-  <si>
-    <t>sys_vadmin_data_range</t>
-  </si>
-  <si>
-    <t>仅本人数据权限</t>
-  </si>
-  <si>
-    <t>本部门数据权限</t>
-  </si>
-  <si>
-    <t>本部门及以下数据权限</t>
-  </si>
-  <si>
-    <t>自定义数据权限</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>全部数据权限</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>系统配置</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1122,7 +1049,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1150,12 +1077,6 @@
       <sz val="9"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1188,7 +1109,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1465,13 +1386,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V41"/>
+  <dimension ref="A1:V40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="19" max="20" width="20.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" t="s">
@@ -1594,7 +1521,7 @@
         <v>44786.455925925926</v>
       </c>
       <c r="T2" s="1">
-        <v>45204.098263888889</v>
+        <v>44883.434317129628</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -1653,7 +1580,7 @@
         <v>44826.954074074078</v>
       </c>
       <c r="T3" s="1">
-        <v>45204.099050925928</v>
+        <v>44883.434606481474</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -2111,14 +2038,14 @@
       <c r="A12" t="s">
         <v>52</v>
       </c>
-      <c r="B12" t="s">
-        <v>332</v>
+      <c r="B12" s="6" t="s">
+        <v>324</v>
       </c>
       <c r="D12" t="s">
         <v>25</v>
       </c>
-      <c r="E12" t="s">
-        <v>333</v>
+      <c r="E12" s="6" t="s">
+        <v>325</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -2157,7 +2084,7 @@
         <v>44862.895787037036</v>
       </c>
       <c r="T12" s="1">
-        <v>45204.15283564815</v>
+        <v>44870.493113425924</v>
       </c>
       <c r="V12">
         <v>0</v>
@@ -3683,62 +3610,6 @@
         <v>45183.466342592597</v>
       </c>
       <c r="V40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22">
-      <c r="A41" t="s">
-        <v>334</v>
-      </c>
-      <c r="D41" t="s">
-        <v>335</v>
-      </c>
-      <c r="E41" t="s">
-        <v>336</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41" t="s">
-        <v>38</v>
-      </c>
-      <c r="J41">
-        <v>2</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>1</v>
-      </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>0</v>
-      </c>
-      <c r="R41">
-        <v>81</v>
-      </c>
-      <c r="S41" s="1">
-        <v>45278.950706018521</v>
-      </c>
-      <c r="T41" s="1">
-        <v>45278.950706018521</v>
-      </c>
-      <c r="V41">
         <v>0</v>
       </c>
     </row>
@@ -4033,168 +3904,49 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{355349EC-D151-4041-BE71-35E0B9FED49F}">
-  <dimension ref="A1:N2"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
         <v>113</v>
       </c>
-      <c r="B1" t="s">
-        <v>324</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F1" t="s">
-        <v>325</v>
-      </c>
-      <c r="G1" t="s">
-        <v>326</v>
-      </c>
-      <c r="H1" t="s">
-        <v>327</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B2" t="s">
-        <v>329</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1">
-        <v>45278.952164351846</v>
-      </c>
-      <c r="L2" s="1">
-        <v>45281.748402777775</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0766066A-E4AE-420C-89ED-591352846793}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="120" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" t="s">
-        <v>19</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -4202,40 +3954,34 @@
       <c r="K1" t="s">
         <v>21</v>
       </c>
-      <c r="L1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>44786.457152777803</v>
+      </c>
+      <c r="C2" s="1">
+        <v>44843.627476851798</v>
+      </c>
+      <c r="D2" t="s">
         <v>117</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>118</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="H2" s="1">
-        <v>44786.457152777773</v>
-      </c>
-      <c r="I2" s="1">
-        <v>44843.627476851849</v>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
-      </c>
-      <c r="L2">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -4246,118 +3992,116 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="7" max="7" width="72.28515625" customWidth="1"/>
+    <col min="9" max="9" width="8" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1" t="s">
         <v>122</v>
       </c>
-      <c r="B1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>123</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>124</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>125</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>126</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>127</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" t="s">
         <v>128</v>
       </c>
-      <c r="M1" t="s">
-        <v>338</v>
-      </c>
-      <c r="N1" t="s">
-        <v>339</v>
-      </c>
-      <c r="O1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="B2" t="s">
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>44784.845185185201</v>
+      </c>
+      <c r="C2" s="1">
+        <v>44888.896111111098</v>
+      </c>
+      <c r="D2" t="s">
         <v>129</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>130</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>118</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>131</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>38</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
         <v>132</v>
       </c>
-      <c r="K2" s="1">
-        <v>45311.463958333341</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
+      <c r="M2" s="1"/>
       <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2" s="1">
-        <v>44784.845185185193</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>45311.463923611118</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4401,35 +4145,43 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="2" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
         <v>135</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>136</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -4439,143 +4191,120 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>44839.919247685197</v>
+      </c>
+      <c r="C2" s="1">
+        <v>44842.581435185202</v>
+      </c>
+      <c r="D2" t="s">
         <v>138</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>139</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>44839.919247685182</v>
-      </c>
-      <c r="G2" s="1">
-        <v>44842.58143518518</v>
+      <c r="G2">
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" t="s">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>44842.581620370402</v>
+      </c>
+      <c r="C3" s="1">
+        <v>44842.581620370402</v>
+      </c>
+      <c r="D3" t="s">
         <v>140</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
         <v>141</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1">
-        <v>44842.581620370365</v>
-      </c>
-      <c r="G3" s="1">
-        <v>44842.581620370365</v>
+      <c r="G3">
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" t="s">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>44898.991770833301</v>
+      </c>
+      <c r="C4" s="1">
+        <v>44898.991770833301</v>
+      </c>
+      <c r="D4" t="s">
         <v>142</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
         <v>143</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4" s="1">
-        <v>44898.991770833338</v>
-      </c>
-      <c r="G4" s="1">
-        <v>44898.991770833338</v>
+      <c r="G4">
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" t="s">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>44898.992488425902</v>
+      </c>
+      <c r="C5" s="1">
+        <v>44898.992488425902</v>
+      </c>
+      <c r="D5" t="s">
         <v>144</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>145</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1">
-        <v>44898.992488425931</v>
-      </c>
-      <c r="G5" s="1">
-        <v>44898.992488425931</v>
+      <c r="G5">
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" t="s">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45102.705092592601</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45107.391307870399</v>
+      </c>
+      <c r="D6" t="s">
         <v>146</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E6" t="s">
         <v>147</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>148</v>
       </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6" s="1">
-        <v>45102.705092592594</v>
-      </c>
-      <c r="G6" s="1">
-        <v>45107.39130787037</v>
+      <c r="G6">
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>340</v>
-      </c>
-      <c r="B7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>6</v>
-      </c>
-      <c r="F7" s="1">
-        <v>45281.775648148148</v>
-      </c>
-      <c r="G7" s="1">
-        <v>45281.775648148148</v>
-      </c>
-      <c r="I7">
         <v>0</v>
       </c>
     </row>
@@ -4587,44 +4316,51 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="2" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>151</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>152</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
         <v>149</v>
       </c>
       <c r="E1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H1" t="s">
-        <v>17</v>
-      </c>
       <c r="I1" t="s">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="J1" t="s">
-        <v>19</v>
+        <v>152</v>
       </c>
       <c r="K1" t="s">
         <v>20</v>
@@ -4634,142 +4370,142 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>44841.505358796298</v>
+      </c>
+      <c r="C2" s="1">
+        <v>44841.505578703698</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
         <v>153</v>
       </c>
-      <c r="B2" t="s">
+      <c r="J2" t="s">
         <v>27</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="H2">
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>44842.580231481501</v>
+      </c>
+      <c r="C3" s="1">
+        <v>44842.580231481501</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>154</v>
+      </c>
+      <c r="J3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>44842.586979166699</v>
+      </c>
+      <c r="C4" s="1">
+        <v>44842.5872453704</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
         <v>2</v>
       </c>
-      <c r="I2" s="1">
-        <v>44841.505358796298</v>
-      </c>
-      <c r="J2" s="1">
-        <v>44841.505578703705</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>155</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>44842.587083333303</v>
+      </c>
+      <c r="C5" s="1">
+        <v>44842.587083333303</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>156</v>
+      </c>
+      <c r="J5" t="s">
         <v>38</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>4</v>
-      </c>
-      <c r="I3" s="1">
-        <v>44842.580231481479</v>
-      </c>
-      <c r="J3" s="1">
-        <v>44842.580231481479</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="H4">
-        <v>5</v>
-      </c>
-      <c r="I4" s="1">
-        <v>44842.586979166663</v>
-      </c>
-      <c r="J4" s="1">
-        <v>44842.587245370371</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <v>6</v>
-      </c>
-      <c r="I5" s="1">
-        <v>44842.587083333332</v>
-      </c>
-      <c r="J5" s="1">
-        <v>44842.587083333332</v>
-      </c>
       <c r="L5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
+      <c r="A6">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
+        <v>44842.587175925903</v>
+      </c>
+      <c r="C6" s="1">
+        <v>44842.587175925903</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4777,435 +4513,275 @@
       <c r="E6">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>2</v>
       </c>
-      <c r="H6">
-        <v>7</v>
-      </c>
-      <c r="I6" s="1">
-        <v>44842.587175925924</v>
-      </c>
-      <c r="J6" s="1">
-        <v>44842.587175925924</v>
+      <c r="I6" t="s">
+        <v>157</v>
+      </c>
+      <c r="J6" t="s">
+        <v>60</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" t="s">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
+        <v>44898.9920486111</v>
+      </c>
+      <c r="C7" s="1">
+        <v>44898.9920486111</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
         <v>158</v>
       </c>
-      <c r="B7" t="s">
+      <c r="J7" t="s">
         <v>27</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1">
+        <v>44898.992210648197</v>
+      </c>
+      <c r="C8" s="1">
+        <v>44898.992210648197</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3</v>
       </c>
-      <c r="H7">
-        <v>8</v>
-      </c>
-      <c r="I7" s="1">
-        <v>44898.992048611115</v>
-      </c>
-      <c r="J7" s="1">
-        <v>44898.992048611115</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" t="s">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
         <v>159</v>
       </c>
-      <c r="B8" t="s">
+      <c r="J8" t="s">
         <v>38</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
+        <v>44898.9926388889</v>
+      </c>
+      <c r="C9" s="1">
+        <v>44898.9926388889</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>160</v>
+      </c>
+      <c r="J9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1">
+        <v>44898.992835648198</v>
+      </c>
+      <c r="C10" s="1">
+        <v>44898.992835648198</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>161</v>
+      </c>
+      <c r="J10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1">
+        <v>44980.950659722199</v>
+      </c>
+      <c r="C11" s="1">
+        <v>44980.953773148103</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
         <v>3</v>
       </c>
-      <c r="H8">
-        <v>9</v>
-      </c>
-      <c r="I8" s="1">
-        <v>44898.992210648154</v>
-      </c>
-      <c r="J8" s="1">
-        <v>44898.992210648154</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" t="s">
-        <v>160</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>4</v>
-      </c>
-      <c r="H9">
-        <v>10</v>
-      </c>
-      <c r="I9" s="1">
-        <v>44898.992638888893</v>
-      </c>
-      <c r="J9" s="1">
-        <v>44898.992638888893</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" t="s">
-        <v>161</v>
-      </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>4</v>
-      </c>
-      <c r="H10">
-        <v>11</v>
-      </c>
-      <c r="I10" s="1">
-        <v>44898.992835648154</v>
-      </c>
-      <c r="J10" s="1">
-        <v>44898.992835648154</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" t="s">
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11" t="s">
         <v>162</v>
       </c>
-      <c r="B11" t="s">
+      <c r="J11" t="s">
         <v>60</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1">
+        <v>45102.705671296302</v>
+      </c>
+      <c r="C12" s="1">
+        <v>45103.661284722199</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>163</v>
+      </c>
+      <c r="J12" t="s">
+        <v>164</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1">
+        <v>45102.706574074102</v>
+      </c>
+      <c r="C13" s="1">
+        <v>45102.706574074102</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>165</v>
+      </c>
+      <c r="J13" t="s">
+        <v>166</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1">
+        <v>45102.706724536998</v>
+      </c>
+      <c r="C14" s="1">
+        <v>45103.661400463003</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>2</v>
       </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="H11">
-        <v>12</v>
-      </c>
-      <c r="I11" s="1">
-        <v>44980.950659722221</v>
-      </c>
-      <c r="J11" s="1">
-        <v>44980.953773148147</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" t="s">
-        <v>163</v>
-      </c>
-      <c r="B12" t="s">
-        <v>164</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>5</v>
-      </c>
-      <c r="H12">
-        <v>14</v>
-      </c>
-      <c r="I12" s="1">
-        <v>45102.705671296295</v>
-      </c>
-      <c r="J12" s="1">
-        <v>45103.66128472222</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" t="s">
-        <v>165</v>
-      </c>
-      <c r="B13" t="s">
-        <v>166</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>5</v>
-      </c>
-      <c r="H13">
-        <v>15</v>
-      </c>
-      <c r="I13" s="1">
-        <v>45102.706574074073</v>
-      </c>
-      <c r="J13" s="1">
-        <v>45102.706574074073</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" t="s">
+      <c r="I14" t="s">
         <v>167</v>
       </c>
-      <c r="B14" t="s">
+      <c r="J14" t="s">
         <v>168</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>5</v>
-      </c>
-      <c r="H14">
-        <v>16</v>
-      </c>
-      <c r="I14" s="1">
-        <v>45102.706724537034</v>
-      </c>
-      <c r="J14" s="1">
-        <v>45103.661400462966</v>
-      </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" t="s">
-        <v>342</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>6</v>
-      </c>
-      <c r="H15">
-        <v>17</v>
-      </c>
-      <c r="I15" s="1">
-        <v>45281.777569444443</v>
-      </c>
-      <c r="J15" s="1">
-        <v>45257.65048611111</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" t="s">
-        <v>343</v>
-      </c>
-      <c r="B16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>6</v>
-      </c>
-      <c r="H16">
-        <v>18</v>
-      </c>
-      <c r="I16" s="1">
-        <v>45281.777731481481</v>
-      </c>
-      <c r="J16" s="1">
-        <v>45257.651412037034</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" t="s">
-        <v>344</v>
-      </c>
-      <c r="B17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>6</v>
-      </c>
-      <c r="H17">
-        <v>19</v>
-      </c>
-      <c r="I17" s="1">
-        <v>45281.777847222227</v>
-      </c>
-      <c r="J17" s="1">
-        <v>45257.651539351849</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" t="s">
-        <v>345</v>
-      </c>
-      <c r="B18" t="s">
-        <v>346</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>6</v>
-      </c>
-      <c r="H18">
-        <v>20</v>
-      </c>
-      <c r="I18" s="1">
-        <v>45281.777951388889</v>
-      </c>
-      <c r="J18" s="1">
-        <v>45257.651597222219</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" t="s">
-        <v>347</v>
-      </c>
-      <c r="B19" t="s">
-        <v>348</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>4</v>
-      </c>
-      <c r="F19">
-        <v>6</v>
-      </c>
-      <c r="H19">
-        <v>21</v>
-      </c>
-      <c r="I19" s="1">
-        <v>45281.778078703705</v>
-      </c>
-      <c r="J19" s="1">
-        <v>45257.651655092588</v>
-      </c>
-      <c r="L19">
         <v>0</v>
       </c>
     </row>
@@ -5220,7 +4796,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5567,8 +5143,8 @@
       <c r="C11" s="1">
         <v>44971.953680555598</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>349</v>
+      <c r="E11" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>193</v>
@@ -5592,7 +5168,6 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="120" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/kinit-api/scripts/initialize/data/init.xlsx
+++ b/kinit-api/scripts/initialize/data/init.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\ktianc\project\kinit\kinit-api\scripts\initialize\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ktianc\programming\project\kinit-pro\kinit-api\scripts\initialize\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97553F9-27BE-416E-92B2-16BBF0FD5499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F03963-B92D-4400-A571-635978E5B7B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="6480" windowWidth="32880" windowHeight="17460" tabRatio="887" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="887" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vadmin_auth_menu" sheetId="1" r:id="rId1"/>
@@ -23,13 +23,15 @@
     <sheet name="vadmin_system_settings" sheetId="7" r:id="rId8"/>
     <sheet name="vadmin_help_issue_category" sheetId="10" r:id="rId9"/>
     <sheet name="vadmin_help_issue" sheetId="11" r:id="rId10"/>
+    <sheet name="vadmin_auth_dept" sheetId="12" r:id="rId11"/>
+    <sheet name="vadmin_auth_user_depts" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="350">
   <si>
     <t>title</t>
   </si>
@@ -1034,11 +1036,82 @@
     <t>views/Vadmin/Resource/Image/Image</t>
   </si>
   <si>
+    <t>dept_key</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>kinit 开发团队</t>
+  </si>
+  <si>
+    <t>total_group</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>dept_id</t>
+  </si>
+  <si>
     <t>tdesign:catalog</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>/record</t>
+  </si>
+  <si>
+    <t>部门管理</t>
+  </si>
+  <si>
+    <t>views/Vadmin/Auth/Dept/Dept</t>
+  </si>
+  <si>
+    <t>dept</t>
+  </si>
+  <si>
+    <t>data_range</t>
+  </si>
+  <si>
+    <t>wx_server_openid</t>
+  </si>
+  <si>
+    <t>is_wx_server_openid</t>
+  </si>
+  <si>
+    <t>数据权限范围</t>
+  </si>
+  <si>
+    <t>sys_vadmin_data_range</t>
+  </si>
+  <si>
+    <t>仅本人数据权限</t>
+  </si>
+  <si>
+    <t>本部门数据权限</t>
+  </si>
+  <si>
+    <t>本部门及以下数据权限</t>
+  </si>
+  <si>
+    <t>自定义数据权限</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>全部数据权限</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>系统配置</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1049,7 +1122,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1077,6 +1150,12 @@
       <sz val="9"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1109,7 +1188,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1386,19 +1465,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V40"/>
+  <dimension ref="A1:V41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="19" max="20" width="20.140625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" t="s">
@@ -1521,7 +1594,7 @@
         <v>44786.455925925926</v>
       </c>
       <c r="T2" s="1">
-        <v>44883.434317129628</v>
+        <v>45204.098263888889</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -1580,7 +1653,7 @@
         <v>44826.954074074078</v>
       </c>
       <c r="T3" s="1">
-        <v>44883.434606481474</v>
+        <v>45204.099050925928</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -2038,14 +2111,14 @@
       <c r="A12" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>324</v>
+      <c r="B12" t="s">
+        <v>332</v>
       </c>
       <c r="D12" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>325</v>
+      <c r="E12" t="s">
+        <v>333</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -2084,7 +2157,7 @@
         <v>44862.895787037036</v>
       </c>
       <c r="T12" s="1">
-        <v>44870.493113425924</v>
+        <v>45204.15283564815</v>
       </c>
       <c r="V12">
         <v>0</v>
@@ -3610,6 +3683,62 @@
         <v>45183.466342592597</v>
       </c>
       <c r="V40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
+      <c r="A41" t="s">
+        <v>334</v>
+      </c>
+      <c r="D41" t="s">
+        <v>335</v>
+      </c>
+      <c r="E41" t="s">
+        <v>336</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41" t="s">
+        <v>38</v>
+      </c>
+      <c r="J41">
+        <v>2</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>81</v>
+      </c>
+      <c r="S41" s="1">
+        <v>45278.950706018521</v>
+      </c>
+      <c r="T41" s="1">
+        <v>45278.950706018521</v>
+      </c>
+      <c r="V41">
         <v>0</v>
       </c>
     </row>
@@ -3904,49 +4033,168 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{355349EC-D151-4041-BE71-35E0B9FED49F}">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H1" t="s">
+        <v>327</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>45278.952164351846</v>
+      </c>
+      <c r="L2" s="1">
+        <v>45281.748402777775</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0766066A-E4AE-420C-89ED-591352846793}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="120" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
+      <c r="H1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I1" t="s">
         <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -3954,34 +4202,40 @@
       <c r="K1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>44786.457152777803</v>
-      </c>
-      <c r="C2" s="1">
-        <v>44843.627476851798</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="L1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
         <v>117</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B2" t="s">
         <v>118</v>
       </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+      <c r="H2" s="1">
+        <v>44786.457152777773</v>
+      </c>
+      <c r="I2" s="1">
+        <v>44843.627476851849</v>
       </c>
       <c r="K2">
         <v>0</v>
+      </c>
+      <c r="L2">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3992,116 +4246,118 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="7" max="7" width="72.28515625" customWidth="1"/>
-    <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" customWidth="1"/>
-    <col min="13" max="13" width="20.140625" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L1" t="s">
+        <v>128</v>
+      </c>
+      <c r="M1" t="s">
+        <v>338</v>
+      </c>
+      <c r="N1" t="s">
+        <v>339</v>
+      </c>
+      <c r="O1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
+      <c r="P1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="Q1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J1" t="s">
-        <v>124</v>
-      </c>
-      <c r="K1" t="s">
-        <v>125</v>
-      </c>
-      <c r="L1" t="s">
-        <v>126</v>
-      </c>
-      <c r="M1" t="s">
-        <v>127</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>20</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>21</v>
       </c>
-      <c r="P1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>44784.845185185201</v>
-      </c>
-      <c r="C2" s="1">
-        <v>44888.896111111098</v>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="B2" t="s">
+        <v>129</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E2" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="F2" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I2" t="s">
         <v>38</v>
       </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
         <v>132</v>
       </c>
-      <c r="M2" s="1"/>
+      <c r="K2" s="1">
+        <v>45311.463958333341</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="P2" s="1">
+        <v>44784.845185185193</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>45311.463923611118</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4145,43 +4401,35 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="3.42578125" customWidth="1"/>
-    <col min="2" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -4191,120 +4439,143 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>44839.919247685197</v>
-      </c>
-      <c r="C2" s="1">
-        <v>44842.581435185202</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="A2" t="s">
         <v>138</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B2" t="s">
         <v>139</v>
       </c>
-      <c r="G2">
-        <v>0</v>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>44839.919247685182</v>
+      </c>
+      <c r="G2" s="1">
+        <v>44842.58143518518</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3">
+      <c r="A3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>44842.581620370402</v>
-      </c>
-      <c r="C3" s="1">
-        <v>44842.581620370402</v>
-      </c>
-      <c r="D3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E3" t="s">
-        <v>141</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
+      <c r="F3" s="1">
+        <v>44842.581620370365</v>
+      </c>
+      <c r="G3" s="1">
+        <v>44842.581620370365</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4">
+      <c r="A4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>44898.991770833301</v>
-      </c>
-      <c r="C4" s="1">
-        <v>44898.991770833301</v>
-      </c>
-      <c r="D4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E4" t="s">
-        <v>143</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
+      <c r="F4" s="1">
+        <v>44898.991770833338</v>
+      </c>
+      <c r="G4" s="1">
+        <v>44898.991770833338</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5">
+      <c r="A5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>44898.992488425902</v>
-      </c>
-      <c r="C5" s="1">
-        <v>44898.992488425902</v>
-      </c>
-      <c r="D5" t="s">
-        <v>144</v>
-      </c>
-      <c r="E5" t="s">
-        <v>145</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
+      <c r="F5" s="1">
+        <v>44898.992488425931</v>
+      </c>
+      <c r="G5" s="1">
+        <v>44898.992488425931</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6">
+      <c r="A6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E6">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>45102.705092592601</v>
-      </c>
-      <c r="C6" s="1">
-        <v>45107.391307870399</v>
-      </c>
-      <c r="D6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E6" t="s">
-        <v>147</v>
-      </c>
-      <c r="F6" t="s">
-        <v>148</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
+      <c r="F6" s="1">
+        <v>45102.705092592594</v>
+      </c>
+      <c r="G6" s="1">
+        <v>45107.39130787037</v>
       </c>
       <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>340</v>
+      </c>
+      <c r="B7" t="s">
+        <v>341</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7" s="1">
+        <v>45281.775648148148</v>
+      </c>
+      <c r="G7" s="1">
+        <v>45281.775648148148</v>
+      </c>
+      <c r="I7">
         <v>0</v>
       </c>
     </row>
@@ -4316,51 +4587,44 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="3.42578125" customWidth="1"/>
-    <col min="2" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>151</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>152</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
         <v>149</v>
       </c>
       <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
         <v>150</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>137</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>152</v>
+        <v>19</v>
       </c>
       <c r="K1" t="s">
         <v>20</v>
@@ -4370,142 +4634,142 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2">
+      <c r="A2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="H2">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
+      <c r="I2" s="1">
         <v>44841.505358796298</v>
       </c>
-      <c r="C2" s="1">
-        <v>44841.505578703698</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>153</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1">
+        <v>44841.505578703705</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="1">
+        <v>44842.580231481479</v>
+      </c>
+      <c r="J3" s="1">
+        <v>44842.580231481479</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" t="s">
         <v>27</v>
       </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1">
-        <v>44842.580231481501</v>
-      </c>
-      <c r="C3" s="1">
-        <v>44842.580231481501</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>154</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4" s="1">
+        <v>44842.586979166663</v>
+      </c>
+      <c r="J4" s="1">
+        <v>44842.587245370371</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" t="s">
         <v>38</v>
       </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1">
-        <v>44842.586979166699</v>
-      </c>
-      <c r="C4" s="1">
-        <v>44842.5872453704</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
         <v>2</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s">
-        <v>155</v>
-      </c>
-      <c r="J4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5">
+      <c r="H5">
         <v>6</v>
       </c>
-      <c r="B5" s="1">
-        <v>44842.587083333303</v>
-      </c>
-      <c r="C5" s="1">
-        <v>44842.587083333303</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>156</v>
-      </c>
-      <c r="J5" t="s">
-        <v>38</v>
+      <c r="I5" s="1">
+        <v>44842.587083333332</v>
+      </c>
+      <c r="J5" s="1">
+        <v>44842.587083333332</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1">
-        <v>44842.587175925903</v>
-      </c>
-      <c r="C6" s="1">
-        <v>44842.587175925903</v>
+      <c r="A6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4513,275 +4777,435 @@
       <c r="E6">
         <v>2</v>
       </c>
-      <c r="G6">
-        <v>0</v>
+      <c r="F6">
+        <v>2</v>
       </c>
       <c r="H6">
+        <v>7</v>
+      </c>
+      <c r="I6" s="1">
+        <v>44842.587175925924</v>
+      </c>
+      <c r="J6" s="1">
+        <v>44842.587175925924</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>8</v>
+      </c>
+      <c r="I7" s="1">
+        <v>44898.992048611115</v>
+      </c>
+      <c r="J7" s="1">
+        <v>44898.992048611115</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>9</v>
+      </c>
+      <c r="I8" s="1">
+        <v>44898.992210648154</v>
+      </c>
+      <c r="J8" s="1">
+        <v>44898.992210648154</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="I9" s="1">
+        <v>44898.992638888893</v>
+      </c>
+      <c r="J9" s="1">
+        <v>44898.992638888893</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>11</v>
+      </c>
+      <c r="I10" s="1">
+        <v>44898.992835648154</v>
+      </c>
+      <c r="J10" s="1">
+        <v>44898.992835648154</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
         <v>2</v>
       </c>
-      <c r="I6" t="s">
-        <v>157</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>12</v>
+      </c>
+      <c r="I11" s="1">
+        <v>44980.950659722221</v>
+      </c>
+      <c r="J11" s="1">
+        <v>44980.953773148147</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>14</v>
+      </c>
+      <c r="I12" s="1">
+        <v>45102.705671296295</v>
+      </c>
+      <c r="J12" s="1">
+        <v>45103.66128472222</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>15</v>
+      </c>
+      <c r="I13" s="1">
+        <v>45102.706574074073</v>
+      </c>
+      <c r="J13" s="1">
+        <v>45102.706574074073</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B14" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>16</v>
+      </c>
+      <c r="I14" s="1">
+        <v>45102.706724537034</v>
+      </c>
+      <c r="J14" s="1">
+        <v>45103.661400462966</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>342</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>6</v>
+      </c>
+      <c r="H15">
+        <v>17</v>
+      </c>
+      <c r="I15" s="1">
+        <v>45281.777569444443</v>
+      </c>
+      <c r="J15" s="1">
+        <v>45257.65048611111</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>343</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>6</v>
+      </c>
+      <c r="H16">
+        <v>18</v>
+      </c>
+      <c r="I16" s="1">
+        <v>45281.777731481481</v>
+      </c>
+      <c r="J16" s="1">
+        <v>45257.651412037034</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>344</v>
+      </c>
+      <c r="B17" t="s">
         <v>60</v>
       </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1">
-        <v>44898.9920486111</v>
-      </c>
-      <c r="C7" s="1">
-        <v>44898.9920486111</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>6</v>
+      </c>
+      <c r="H17">
+        <v>19</v>
+      </c>
+      <c r="I17" s="1">
+        <v>45281.777847222227</v>
+      </c>
+      <c r="J17" s="1">
+        <v>45257.651539351849</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>345</v>
+      </c>
+      <c r="B18" t="s">
+        <v>346</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
         <v>3</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" t="s">
-        <v>158</v>
-      </c>
-      <c r="J7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1">
-        <v>44898.992210648197</v>
-      </c>
-      <c r="C8" s="1">
-        <v>44898.992210648197</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s">
-        <v>159</v>
-      </c>
-      <c r="J8" t="s">
-        <v>38</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1">
-        <v>44898.9926388889</v>
-      </c>
-      <c r="C9" s="1">
-        <v>44898.9926388889</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
+      <c r="F18">
+        <v>6</v>
+      </c>
+      <c r="H18">
+        <v>20</v>
+      </c>
+      <c r="I18" s="1">
+        <v>45281.777951388889</v>
+      </c>
+      <c r="J18" s="1">
+        <v>45257.651597222219</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>347</v>
+      </c>
+      <c r="B19" t="s">
+        <v>348</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
         <v>4</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9" t="s">
-        <v>160</v>
-      </c>
-      <c r="J9" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1">
-        <v>44898.992835648198</v>
-      </c>
-      <c r="C10" s="1">
-        <v>44898.992835648198</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>4</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" t="s">
-        <v>161</v>
-      </c>
-      <c r="J10" t="s">
-        <v>38</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11">
-        <v>12</v>
-      </c>
-      <c r="B11" s="1">
-        <v>44980.950659722199</v>
-      </c>
-      <c r="C11" s="1">
-        <v>44980.953773148103</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>2</v>
-      </c>
-      <c r="I11" t="s">
-        <v>162</v>
-      </c>
-      <c r="J11" t="s">
-        <v>60</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12">
-        <v>14</v>
-      </c>
-      <c r="B12" s="1">
-        <v>45102.705671296302</v>
-      </c>
-      <c r="C12" s="1">
-        <v>45103.661284722199</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>5</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12" t="s">
-        <v>163</v>
-      </c>
-      <c r="J12" t="s">
-        <v>164</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13">
-        <v>15</v>
-      </c>
-      <c r="B13" s="1">
-        <v>45102.706574074102</v>
-      </c>
-      <c r="C13" s="1">
-        <v>45102.706574074102</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>5</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13" t="s">
-        <v>165</v>
-      </c>
-      <c r="J13" t="s">
-        <v>166</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14">
-        <v>16</v>
-      </c>
-      <c r="B14" s="1">
-        <v>45102.706724536998</v>
-      </c>
-      <c r="C14" s="1">
-        <v>45103.661400463003</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>5</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>2</v>
-      </c>
-      <c r="I14" t="s">
-        <v>167</v>
-      </c>
-      <c r="J14" t="s">
-        <v>168</v>
-      </c>
-      <c r="L14">
+      <c r="F19">
+        <v>6</v>
+      </c>
+      <c r="H19">
+        <v>21</v>
+      </c>
+      <c r="I19" s="1">
+        <v>45281.778078703705</v>
+      </c>
+      <c r="J19" s="1">
+        <v>45257.651655092588</v>
+      </c>
+      <c r="L19">
         <v>0</v>
       </c>
     </row>
@@ -4796,7 +5220,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5143,8 +5567,8 @@
       <c r="C11" s="1">
         <v>44971.953680555598</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>53</v>
+      <c r="E11" s="6" t="s">
+        <v>349</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>193</v>
@@ -5168,6 +5592,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="120" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>
 
